--- a/Docs/Tagging/tags_manitobamuseum_juan.xlsx
+++ b/Docs/Tagging/tags_manitobamuseum_juan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19440" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,13 +620,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,15 +944,15 @@
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1535,7 +1535,7 @@
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="15" t="s">
